--- a/bird migration data.xlsx
+++ b/bird migration data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/violaarduini/Documents/IoT/capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCAF6D3-D390-0141-892B-2AFB2E4527E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC5F68-8F17-6E49-9123-9EC3451AFA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="500" windowWidth="24360" windowHeight="15720" xr2:uid="{7F02323A-B5E0-6147-BD64-7F213A0A6358}"/>
   </bookViews>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>int birddata[][] ={</t>
-  </si>
-  <si>
-    <t>Mean of daily mean value (Calculation Period 2021-10-01 -&gt; 2023-09-30)</t>
   </si>
   <si>
     <t>Jan</t>
@@ -94,15 +91,25 @@
   <si>
     <t>}}</t>
   </si>
+  <si>
+    <t>birds in flight per night</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212B0845-95F3-8342-BB70-B227B9997DB2}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -468,40 +476,40 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>11</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>12</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>13</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -511,1918 +519,2393 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>88000</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>698800</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7">
         <v>16570800</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7">
         <v>239200</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7">
         <v>444100</v>
       </c>
       <c r="R7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S7">
         <v>730000</v>
       </c>
       <c r="T7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U7">
         <v>223900</v>
       </c>
       <c r="V7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W7">
         <v>178800</v>
       </c>
       <c r="X7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
         <v>16</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>47200</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>322700</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8">
         <v>5897800</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8">
         <v>77700</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q8">
         <v>1681700</v>
       </c>
       <c r="R8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S8">
         <v>4343100</v>
       </c>
       <c r="T8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U8">
         <v>4579200</v>
       </c>
       <c r="V8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W8">
         <v>441700</v>
       </c>
       <c r="X8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
         <v>16</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>60000</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>663300</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9">
         <v>7716000</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9">
         <v>244800</v>
       </c>
       <c r="N9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q9">
         <v>987200</v>
       </c>
       <c r="R9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S9">
         <v>4635400</v>
       </c>
       <c r="T9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U9">
         <v>27742400</v>
       </c>
       <c r="V9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W9">
         <v>475200</v>
       </c>
       <c r="X9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
         <v>16</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>220100</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>46300</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10">
         <v>3319900</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10">
         <v>540400</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q10">
         <v>1036300</v>
       </c>
       <c r="R10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S10">
         <v>10453900</v>
       </c>
       <c r="T10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U10">
         <v>26431100</v>
       </c>
       <c r="V10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W10">
         <v>366700</v>
       </c>
       <c r="X10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
         <v>16</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>81800</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>348100</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11">
         <v>2249600</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11">
         <v>818400</v>
       </c>
       <c r="N11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q11">
         <v>1601500</v>
       </c>
       <c r="R11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S11">
         <v>3757000</v>
       </c>
       <c r="T11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U11">
         <v>2505100</v>
       </c>
       <c r="V11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W11">
         <v>140300</v>
       </c>
       <c r="X11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
         <v>16</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>140500</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12">
         <v>1539600</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12">
         <v>3864900</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12">
         <v>339400</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q12">
         <v>7472900</v>
       </c>
       <c r="R12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S12">
         <v>1540400</v>
       </c>
       <c r="T12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U12">
         <v>2122300</v>
       </c>
       <c r="V12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W12">
         <v>109100</v>
       </c>
       <c r="X12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="s">
         <v>16</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>116000</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13">
         <v>1036400</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13">
         <v>3938300</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M13">
         <v>271700</v>
       </c>
       <c r="N13" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q13">
         <v>1735700</v>
       </c>
       <c r="R13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S13">
         <v>13140800</v>
       </c>
       <c r="T13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U13">
         <v>1050100</v>
       </c>
       <c r="V13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W13">
         <v>39300</v>
       </c>
       <c r="X13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="s">
         <v>16</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>165200</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <v>1093300</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14">
         <v>10237100</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M14">
         <v>1288800</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q14">
         <v>2333100</v>
       </c>
       <c r="R14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S14">
         <v>13621100</v>
       </c>
       <c r="T14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U14">
         <v>5717700</v>
       </c>
       <c r="V14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W14">
         <v>492900</v>
       </c>
       <c r="X14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="s">
         <v>16</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>273600</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15">
         <v>688100</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15">
         <v>9816800</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M15">
         <v>806900</v>
       </c>
       <c r="N15" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q15">
         <v>2935400</v>
       </c>
       <c r="R15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S15">
         <v>3965800</v>
       </c>
       <c r="T15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U15">
         <v>2996100</v>
       </c>
       <c r="V15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W15">
         <v>36100</v>
       </c>
       <c r="X15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
         <v>16</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>153300</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>3150500</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16">
         <v>762600</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M16">
         <v>1489600</v>
       </c>
       <c r="N16" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q16">
         <v>2948900</v>
       </c>
       <c r="R16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S16">
         <v>3005200</v>
       </c>
       <c r="T16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U16">
         <v>1594600</v>
       </c>
       <c r="V16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W16">
         <v>19800</v>
       </c>
       <c r="X16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="s">
         <v>16</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>61800</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17">
         <v>4052900</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17">
         <v>695100</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17">
         <v>2415500</v>
       </c>
       <c r="N17" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q17">
         <v>2615600</v>
       </c>
       <c r="R17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S17">
         <v>3141800</v>
       </c>
       <c r="T17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U17">
         <v>466500</v>
       </c>
       <c r="V17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W17">
         <v>114700</v>
       </c>
       <c r="X17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="s">
         <v>16</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>76100</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>4056300</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18">
         <v>5569400</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18">
         <v>258600</v>
       </c>
       <c r="N18" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q18">
         <v>5421300</v>
       </c>
       <c r="R18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S18">
         <v>848500</v>
       </c>
       <c r="T18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U18">
         <v>10899000</v>
       </c>
       <c r="V18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W18">
         <v>51400</v>
       </c>
       <c r="X18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="s">
         <v>16</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>192200</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <v>2173000</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19">
         <v>1619300</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M19">
         <v>105100</v>
       </c>
       <c r="N19" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q19">
         <v>5322700</v>
       </c>
       <c r="R19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S19">
         <v>11017500</v>
       </c>
       <c r="T19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U19">
         <v>2350800</v>
       </c>
       <c r="V19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W19">
         <v>9800</v>
       </c>
       <c r="X19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="s">
         <v>16</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>1146800</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20">
         <v>170400</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20">
         <v>1491600</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20">
         <v>2011000</v>
       </c>
       <c r="N20" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q20">
         <v>1158200</v>
       </c>
       <c r="R20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S20">
         <v>11006400</v>
       </c>
       <c r="T20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U20">
         <v>1111800</v>
       </c>
       <c r="V20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W20">
         <v>45700</v>
       </c>
       <c r="X20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="s">
         <v>16</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <v>119900</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21">
         <v>247000</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21">
         <v>3981600</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q21">
         <v>814300</v>
       </c>
       <c r="R21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S21">
         <v>12966300</v>
       </c>
       <c r="T21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U21">
         <v>1603800</v>
       </c>
       <c r="V21" t="s">
+        <v>15</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="s">
         <v>16</v>
-      </c>
-      <c r="X21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22">
         <v>52100</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22">
         <v>4597900</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22">
         <v>2175400</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q22">
         <v>2106500</v>
       </c>
       <c r="R22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S22">
         <v>13083100</v>
       </c>
       <c r="T22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U22">
         <v>524800</v>
       </c>
       <c r="V22" t="s">
+        <v>15</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="s">
         <v>16</v>
-      </c>
-      <c r="X22" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23">
         <v>56800</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23">
         <v>3275100</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23">
         <v>1601000</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q23">
         <v>1806700</v>
       </c>
       <c r="R23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S23">
         <v>2179300</v>
       </c>
       <c r="T23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U23">
         <v>2188600</v>
       </c>
       <c r="V23" t="s">
+        <v>15</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="s">
         <v>16</v>
-      </c>
-      <c r="X23" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <v>124400</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24">
         <v>1960400</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24">
         <v>484700</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q24">
         <v>734100</v>
       </c>
       <c r="R24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S24">
         <v>6794300</v>
       </c>
       <c r="T24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U24">
         <v>3410000</v>
       </c>
       <c r="V24" t="s">
+        <v>15</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="s">
         <v>16</v>
-      </c>
-      <c r="X24" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>89700</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <v>644200</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25">
         <v>1517600</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q25">
         <v>216600</v>
       </c>
       <c r="R25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S25">
         <v>18098100</v>
       </c>
       <c r="T25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U25">
         <v>449000</v>
       </c>
       <c r="V25" t="s">
+        <v>15</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="s">
         <v>16</v>
-      </c>
-      <c r="X25" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>218500</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>79500</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26">
         <v>1280800</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q26">
         <v>63600</v>
       </c>
       <c r="R26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S26">
         <v>305600</v>
       </c>
       <c r="T26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U26">
         <v>225500</v>
       </c>
       <c r="V26" t="s">
+        <v>15</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="s">
         <v>16</v>
-      </c>
-      <c r="X26" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27">
         <v>231000</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27">
         <v>482300</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27">
         <v>1181900</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q27">
         <v>551800</v>
       </c>
       <c r="R27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S27">
         <v>346900</v>
       </c>
       <c r="T27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U27">
         <v>140500</v>
       </c>
       <c r="V27" t="s">
+        <v>15</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="s">
         <v>16</v>
-      </c>
-      <c r="X27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28">
         <v>178400</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28">
         <v>1980800</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K28">
         <v>2333700</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q28">
         <v>521000</v>
       </c>
       <c r="R28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S28">
         <v>8142800</v>
       </c>
       <c r="T28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U28">
         <v>88200</v>
       </c>
       <c r="V28" t="s">
+        <v>15</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="s">
         <v>16</v>
-      </c>
-      <c r="X28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29">
         <v>50800</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29">
         <v>4686200</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29">
         <v>4180400</v>
       </c>
       <c r="L29" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q29">
         <v>976100</v>
       </c>
       <c r="R29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S29">
         <v>19349300</v>
       </c>
       <c r="T29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U29">
         <v>82700</v>
       </c>
       <c r="V29" t="s">
+        <v>15</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
         <v>16</v>
-      </c>
-      <c r="X29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30">
         <v>47000</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30">
         <v>2640900</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30">
         <v>2961000</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q30">
         <v>2640800</v>
       </c>
       <c r="R30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S30">
         <v>20744600</v>
       </c>
       <c r="T30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U30">
         <v>296100</v>
       </c>
       <c r="V30" t="s">
+        <v>15</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="s">
         <v>16</v>
-      </c>
-      <c r="X30" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31">
         <v>116200</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31">
         <v>452900</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31">
         <v>4520400</v>
       </c>
       <c r="L31" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q31">
         <v>9214300</v>
       </c>
       <c r="R31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S31">
         <v>988900</v>
       </c>
       <c r="T31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U31">
         <v>765600</v>
       </c>
       <c r="V31" t="s">
+        <v>15</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
         <v>16</v>
-      </c>
-      <c r="X31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G32">
         <v>211400</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32">
         <v>932800</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K32">
         <v>2819600</v>
       </c>
       <c r="L32" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q32">
         <v>4290200</v>
       </c>
       <c r="R32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S32">
         <v>1010200</v>
       </c>
       <c r="T32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U32">
         <v>598300</v>
       </c>
       <c r="V32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="s">
         <v>16</v>
-      </c>
-      <c r="X32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <v>269700</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33">
         <v>1106200</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K33">
         <v>574500</v>
       </c>
       <c r="L33" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q33">
         <v>5897900</v>
       </c>
       <c r="R33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S33">
         <v>1957600</v>
       </c>
       <c r="T33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U33">
         <v>157000</v>
       </c>
       <c r="V33" t="s">
+        <v>15</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="s">
         <v>16</v>
-      </c>
-      <c r="X33" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <v>899900</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34">
         <v>1190000</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K34">
         <v>661400</v>
       </c>
       <c r="L34" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q34">
         <v>5651300</v>
       </c>
       <c r="R34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S34">
         <v>2379200</v>
       </c>
       <c r="T34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U34">
         <v>219500</v>
       </c>
       <c r="V34" t="s">
+        <v>15</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
         <v>16</v>
-      </c>
-      <c r="X34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35">
         <v>1436200</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35">
         <v>7624000</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K35">
         <v>1273400</v>
       </c>
       <c r="L35" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q35">
         <v>2793300</v>
       </c>
       <c r="R35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S35">
         <v>293600</v>
       </c>
       <c r="T35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U35">
         <v>443500</v>
       </c>
       <c r="V35" t="s">
+        <v>15</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
         <v>16</v>
-      </c>
-      <c r="X35" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36">
         <v>675800</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36">
         <v>10071400</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36">
         <v>1629200</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q36">
         <v>2204400</v>
       </c>
       <c r="R36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S36">
         <v>60800</v>
       </c>
       <c r="T36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U36">
         <v>543100</v>
       </c>
       <c r="V36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="s">
         <v>16</v>
-      </c>
-      <c r="X36" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37">
         <v>81800</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37">
         <v>-1</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K37">
         <v>481300</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M37" s="1">
+        <v>-1</v>
       </c>
       <c r="N37" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q37">
         <v>274000</v>
       </c>
       <c r="R37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S37">
         <v>-1</v>
       </c>
       <c r="T37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U37">
         <v>72200</v>
       </c>
       <c r="V37" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="W37" s="1">
+        <v>-1</v>
       </c>
       <c r="X37" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
       </c>
       <c r="Z37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>